--- a/result_table_templates/SpikeBrainCC.xlsx
+++ b/result_table_templates/SpikeBrainCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\githubRepos\DJ_schwartzlab\result_table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48930B7-F5C4-432A-8B03-67207814F175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8123FA2-26BA-47CC-AAB7-80174EE688E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40700" yWindow="890" windowWidth="19200" windowHeight="9770" xr2:uid="{50BB6B17-7E6C-4BF4-975A-5B4CF707D021}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/result_table_templates/SpikeBrainCC.xlsx
+++ b/result_table_templates/SpikeBrainCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming\githubRepos\DJ_schwartzlab\result_table_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8123FA2-26BA-47CC-AAB7-80174EE688E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BFD93C-A291-4AF0-87A5-A2F61471E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40700" yWindow="890" windowWidth="19200" windowHeight="9770" xr2:uid="{50BB6B17-7E6C-4BF4-975A-5B4CF707D021}"/>
+    <workbookView xWindow="360" yWindow="360" windowWidth="14400" windowHeight="8190" xr2:uid="{50BB6B17-7E6C-4BF4-975A-5B4CF707D021}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8051A3AF-0D35-480B-B425-0CF5DC3B7DD0}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -624,7 +624,7 @@
         <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
